--- a/biology/Zoologie/Atherinopsidae/Atherinopsidae.xlsx
+++ b/biology/Zoologie/Atherinopsidae/Atherinopsidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Atherinopsidae sont une famille de poissons de l'ordre des Atheriniformes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En anglais, on leur donne le nom de Silversides. La famille comprend un peu plus d'une centaine espèces. Ces poissons se rencontrent dans les eaux tropicales et tempérées du nouveau monde, tant en eau douce qu'en eau salée.
 L'espèce la plus grande, Odontesthes bonariensis, mesure jusqu'à plus de 70 cm de long, avec un poids de 10 kg. La plus petite, Menidia colei, ne mesure que 4,2 cm de long et ne pèse que quelques grammes.
@@ -543,7 +557,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Atherinopsis californiensis.
